--- a/BMRAapplication/Assets/Course Evaluation Summary - DISA Template.xlsx
+++ b/BMRAapplication/Assets/Course Evaluation Summary - DISA Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BMRA_code\work_project\TestEnv\DISA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\source\repos\BMRAapp\BMRAapplication\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64931163-B807-4C52-AB20-5DECECC021CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B14DC6C-E127-466B-9D0E-CA4207283814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="1815" windowWidth="23130" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALS" sheetId="1" r:id="rId1"/>
@@ -146,9 +146,6 @@
     <t>How engaging was the course presentation?</t>
   </si>
   <si>
-    <t>How helpful were the course exercises?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How well did instructor succeed at making the virtual course engaging? </t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Materials Score</t>
+  </si>
+  <si>
+    <t>Were course materials relevant to the achievements of the learning objectives?</t>
   </si>
 </sst>
 </file>
@@ -637,6 +637,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,24 +676,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,12 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:Q11"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,40 +1026,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1068,9 +1068,9 @@
         <v>12</v>
       </c>
       <c r="N2" s="23"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
       <c r="R2" s="2">
         <f>SUM(L2,O2)</f>
         <v>0</v>
@@ -1078,17 +1078,17 @@
     </row>
     <row r="3" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
@@ -1097,9 +1097,9 @@
         <v>20</v>
       </c>
       <c r="N3" s="23"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="2">
         <f>SUM(L3,O3)</f>
         <v>0</v>
@@ -1149,38 +1149,38 @@
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:25" s="21" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1207,14 +1207,14 @@
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1241,14 +1241,14 @@
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1275,14 +1275,14 @@
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1313,14 +1313,14 @@
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1347,38 +1347,38 @@
       <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="35"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:25" s="21" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1405,14 +1405,14 @@
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
+      <c r="B13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1439,14 +1439,14 @@
       <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
+      <c r="B14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1473,14 +1473,14 @@
       <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -1507,24 +1507,24 @@
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="37"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="1" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -1534,14 +1534,14 @@
       <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1571,11 +1571,11 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1624,10 +1624,10 @@
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="32"/>
+      <c r="P21" s="40"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="1">
         <f>SUM(L19+O19+Q19)</f>
@@ -1646,16 +1646,16 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="34"/>
+      <c r="K22" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="29"/>
       <c r="M22" s="22"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="33" t="s">
+      <c r="O22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="34"/>
+      <c r="P22" s="29"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="1"/>
     </row>
@@ -1671,16 +1671,16 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="34"/>
+      <c r="K23" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="29"/>
       <c r="M23" s="22"/>
       <c r="N23" s="9"/>
-      <c r="O23" s="33" t="s">
+      <c r="O23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="34"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="1">
         <f>Q21</f>
@@ -1706,13 +1706,6 @@
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O22:P22"/>
@@ -1729,6 +1722,13 @@
     <mergeCell ref="O2:Q3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.4963541666666667" bottom="0.5" header="0.3" footer="0.3"/>

--- a/BMRAapplication/Assets/Course Evaluation Summary - DISA Template.xlsx
+++ b/BMRAapplication/Assets/Course Evaluation Summary - DISA Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tommy\source\repos\BMRAapp\BMRAapplication\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B14DC6C-E127-466B-9D0E-CA4207283814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D192FF-950F-426B-A303-A494EF58C22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="1815" windowWidth="23130" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALS" sheetId="1" r:id="rId1"/>
+    <sheet name="calcs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">EVALS!$A$1:$Q$23</definedName>
@@ -32,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>I.</t>
   </si>
@@ -163,12 +186,69 @@
   <si>
     <t>Were course materials relevant to the achievements of the learning objectives?</t>
   </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t># of Evals</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good </t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Course ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class Name Agency </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Course ID </t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +334,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -293,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -549,12 +644,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -637,45 +902,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -700,10 +959,212 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="50" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:G6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,47 +1480,49 @@
     <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
     <col min="2" max="6" width="15.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="3" customWidth="1"/>
-    <col min="8" max="17" width="8.7109375" style="5" customWidth="1"/>
+    <col min="8" max="12" width="8.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.7109375" style="5" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="7" customWidth="1"/>
     <col min="19" max="31" width="8.7109375" style="3" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
@@ -1068,9 +1531,9 @@
         <v>12</v>
       </c>
       <c r="N2" s="23"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="44"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="42"/>
       <c r="R2" s="2">
         <f>SUM(L2,O2)</f>
         <v>0</v>
@@ -1078,17 +1541,17 @@
     </row>
     <row r="3" spans="1:25" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
@@ -1097,9 +1560,9 @@
         <v>20</v>
       </c>
       <c r="N3" s="23"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
       <c r="R3" s="2">
         <f>SUM(L3,O3)</f>
         <v>0</v>
@@ -1149,38 +1612,38 @@
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:25" s="21" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1207,14 +1670,14 @@
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1241,14 +1704,14 @@
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -1275,14 +1738,14 @@
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
@@ -1313,14 +1776,14 @@
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1347,38 +1810,38 @@
       <c r="A11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:25" s="21" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -1405,14 +1868,14 @@
       <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -1439,14 +1902,14 @@
       <c r="A14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -1473,14 +1936,14 @@
       <c r="A15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -1507,24 +1970,24 @@
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
       <c r="R16" s="1" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
@@ -1534,14 +1997,14 @@
       <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -1571,11 +2034,11 @@
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
@@ -1624,10 +2087,10 @@
       <c r="L21" s="8"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="40"/>
+      <c r="P21" s="32"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="1">
         <f>SUM(L19+O19+Q19)</f>
@@ -1646,16 +2109,19 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="22"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="113" t="e">
+        <f>calcs!M3</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P22" s="29"/>
+      <c r="P22" s="34"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="1"/>
     </row>
@@ -1671,16 +2137,19 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="22"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="113" t="e">
+        <f>calcs!M9</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="28" t="s">
+      <c r="O23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="29"/>
+      <c r="P23" s="34"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="1">
         <f>Q21</f>
@@ -1706,6 +2175,13 @@
     <row r="26" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O22:P22"/>
@@ -1722,17 +2198,10 @@
     <mergeCell ref="O2:Q3"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="1.4963541666666667" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial Narrow,Bold"&amp;18Business Management Research Assoc, Inc&amp;R&amp;14BMRA Ref: XXXXX.XXXX
 DATE: Jan. 1 -2, 2024
@@ -1747,4 +2216,466 @@
   </colBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF378E3-24EC-4D18-91CD-373E072C703E}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="65">
+        <f>IF(OR(TRIM(EVALS!H12)="", ISBLANK(EVALS!H12)), 0, EVALS!H12) + IF(OR(TRIM(EVALS!I12)="", ISBLANK(EVALS!I12)), 0, EVALS!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="66">
+        <f>IF(OR(TRIM(EVALS!J12)="", ISBLANK(EVALS!J12)), 0, EVALS!J12) + IF(OR(TRIM(EVALS!K12)="", ISBLANK(EVALS!K12)), 0, EVALS!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="66">
+        <f>IF(OR(TRIM(EVALS!L12)="", ISBLANK(EVALS!L12)), 0, EVALS!L12) + IF(OR(TRIM(EVALS!M12)="", ISBLANK(EVALS!M12)), 0, EVALS!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="66">
+        <f>IF(OR(TRIM(EVALS!N12)="", ISBLANK(EVALS!N12)), 0, EVALS!N12) + IF(OR(TRIM(EVALS!O12)="", ISBLANK(EVALS!O12)), 0, EVALS!O12)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="67">
+        <f>IF(OR(TRIM(EVALS!P12)="", ISBLANK(EVALS!P12)), 0, EVALS!P12) + IF(OR(TRIM(EVALS!Q12)="", ISBLANK(EVALS!Q12)), 0, EVALS!Q12)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="108">
+        <f>IF(ISBLANK(EVALS!Q22), 0, EVALS!Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="99" t="e">
+        <f>(((AVERAGE(F3:F6)*5)+(AVERAGE(G3:G6)*4)+(AVERAGE(H3:H6)*3)+(AVERAGE(I3:I6)*2)+(AVERAGE(J3:J6)*1))/K3)/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M3" s="105" t="e">
+        <f>L3*5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="71">
+        <f>IF(OR(TRIM(EVALS!H13)="", ISBLANK(EVALS!H13)), 0, EVALS!H13) + IF(OR(TRIM(EVALS!I13)="", ISBLANK(EVALS!I13)), 0, EVALS!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="111">
+        <f>IF(OR(TRIM(EVALS!J13)="", ISBLANK(EVALS!J13)), 0, EVALS!J13) + IF(OR(TRIM(EVALS!K13)="", ISBLANK(EVALS!K13)), 0, EVALS!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="111">
+        <f>IF(OR(TRIM(EVALS!L13)="", ISBLANK(EVALS!L13)), 0, EVALS!L13) + IF(OR(TRIM(EVALS!M13)="", ISBLANK(EVALS!M13)), 0, EVALS!M13)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="111">
+        <f>IF(OR(TRIM(EVALS!N13)="", ISBLANK(EVALS!N13)), 0, EVALS!N13) + IF(OR(TRIM(EVALS!O13)="", ISBLANK(EVALS!O13)), 0, EVALS!O13)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="72">
+        <f>IF(OR(TRIM(EVALS!P13)="", ISBLANK(EVALS!P13)), 0, EVALS!P13) + IF(OR(TRIM(EVALS!Q13)="", ISBLANK(EVALS!Q13)), 0, EVALS!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="109"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="106"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="71">
+        <f>IF(OR(TRIM(EVALS!H14)="", ISBLANK(EVALS!H14)), 0, EVALS!H14) + IF(OR(TRIM(EVALS!I14)="", ISBLANK(EVALS!I14)), 0, EVALS!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="111">
+        <f>IF(OR(TRIM(EVALS!J14)="", ISBLANK(EVALS!J14)), 0, EVALS!J14) + IF(OR(TRIM(EVALS!K14)="", ISBLANK(EVALS!K14)), 0, EVALS!K14)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="111">
+        <f>IF(OR(TRIM(EVALS!L14)="", ISBLANK(EVALS!L14)), 0, EVALS!L14) + IF(OR(TRIM(EVALS!M14)="", ISBLANK(EVALS!M14)), 0, EVALS!M14)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="111">
+        <f>IF(OR(TRIM(EVALS!N14)="", ISBLANK(EVALS!N14)), 0, EVALS!N14) + IF(OR(TRIM(EVALS!O14)="", ISBLANK(EVALS!O14)), 0, EVALS!O14)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="72">
+        <f>IF(OR(TRIM(EVALS!P14)="", ISBLANK(EVALS!P14)), 0, EVALS!P14) + IF(OR(TRIM(EVALS!Q14)="", ISBLANK(EVALS!Q14)), 0, EVALS!Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="109"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="106"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="76">
+        <f>IF(OR(TRIM(EVALS!H15)="", ISBLANK(EVALS!H15)), 0, EVALS!H15) + IF(OR(TRIM(EVALS!I15)="", ISBLANK(EVALS!I15)), 0, EVALS!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="77">
+        <f>IF(OR(TRIM(EVALS!J15)="", ISBLANK(EVALS!J15)), 0, EVALS!J15) + IF(OR(TRIM(EVALS!K15)="", ISBLANK(EVALS!K15)), 0, EVALS!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <f>IF(OR(TRIM(EVALS!L15)="", ISBLANK(EVALS!L15)), 0, EVALS!L15) + IF(OR(TRIM(EVALS!M15)="", ISBLANK(EVALS!M15)), 0, EVALS!M15)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="77">
+        <f>IF(OR(TRIM(EVALS!N15)="", ISBLANK(EVALS!N15)), 0, EVALS!N15) + IF(OR(TRIM(EVALS!O15)="", ISBLANK(EVALS!O15)), 0, EVALS!O15)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="78">
+        <f>IF(OR(TRIM(EVALS!P15)="", ISBLANK(EVALS!P15)), 0, EVALS!P15) + IF(OR(TRIM(EVALS!Q15)="", ISBLANK(EVALS!Q15)), 0, EVALS!Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="110"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="107"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="85">
+        <f>IF(OR(TRIM(EVALS!H6)="", ISBLANK(EVALS!H6)), 0, EVALS!H6) + IF(OR(TRIM(EVALS!I6)="", ISBLANK(EVALS!I6)), 0, EVALS!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="86" cm="1">
+        <f t="array" ref="G9">IF(OR(TRIM(EVALS!J6)="", ISBLANK(EVALS!I=J6)), 0, EVALS!J6) + IF(OR(TRIM(EVALS!K6)="", ISBLANK(EVALS!K6)), 0, EVALS!K6)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="86" cm="1">
+        <f t="array" ref="H9">IF(OR(TRIM(EVALS!L6)="", ISBLANK(EVALS!I=L6)), 0, EVALS!L6) + IF(OR(TRIM(EVALS!M6)="", ISBLANK(EVALS!M6)), 0, EVALS!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="86" cm="1">
+        <f t="array" ref="I9">IF(OR(TRIM(EVALS!N6)="", ISBLANK(EVALS!I=N6)), 0, EVALS!N6) + IF(OR(TRIM(EVALS!O6)="", ISBLANK(EVALS!O6)), 0, EVALS!O6)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="87">
+        <f>IF(OR(TRIM(EVALS!P6)="", ISBLANK(EVALS!P6)), 0, EVALS!P6) + IF(OR(TRIM(EVALS!Q6)="", ISBLANK(EVALS!Q6)), 0, EVALS!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <f>IF(ISBLANK(EVALS!Q22), 0, EVALS!Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="88" t="e">
+        <f>(((AVERAGE(F9:F13)*5)+(AVERAGE(G9:G13)*4)+(AVERAGE(H9:H13)*3)+(AVERAGE(I9:I13)*2)+(AVERAGE(J9:J13)*1))/K9)/5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="89" t="e">
+        <f>L9*5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="90">
+        <f>IF(OR(TRIM(EVALS!H7)="", ISBLANK(EVALS!H7)), 0, EVALS!H7) + IF(OR(TRIM(EVALS!I7)="", ISBLANK(EVALS!I7)), 0, EVALS!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="112" cm="1">
+        <f t="array" ref="G10">IF(OR(TRIM(EVALS!J7)="", ISBLANK(EVALS!I=J7)), 0, EVALS!J7) + IF(OR(TRIM(EVALS!K7)="", ISBLANK(EVALS!K7)), 0, EVALS!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="112" cm="1">
+        <f t="array" ref="H10">IF(OR(TRIM(EVALS!L7)="", ISBLANK(EVALS!I=L7)), 0, EVALS!L7) + IF(OR(TRIM(EVALS!M7)="", ISBLANK(EVALS!M7)), 0, EVALS!M7)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="112" cm="1">
+        <f t="array" ref="I10">IF(OR(TRIM(EVALS!N7)="", ISBLANK(EVALS!I=N7)), 0, EVALS!N7) + IF(OR(TRIM(EVALS!O7)="", ISBLANK(EVALS!O7)), 0, EVALS!O7)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="91">
+        <f>IF(OR(TRIM(EVALS!P7)="", ISBLANK(EVALS!P7)), 0, EVALS!P7) + IF(OR(TRIM(EVALS!Q7)="", ISBLANK(EVALS!Q7)), 0, EVALS!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="93"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="90">
+        <f>IF(OR(TRIM(EVALS!H8)="", ISBLANK(EVALS!H8)), 0, EVALS!H8) + IF(OR(TRIM(EVALS!I8)="", ISBLANK(EVALS!I8)), 0, EVALS!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="112" cm="1">
+        <f t="array" ref="G11">IF(OR(TRIM(EVALS!J8)="", ISBLANK(EVALS!I=J8)), 0, EVALS!J8) + IF(OR(TRIM(EVALS!K8)="", ISBLANK(EVALS!K8)), 0, EVALS!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="112" cm="1">
+        <f t="array" ref="H11">IF(OR(TRIM(EVALS!L8)="", ISBLANK(EVALS!I=L8)), 0, EVALS!L8) + IF(OR(TRIM(EVALS!M8)="", ISBLANK(EVALS!M8)), 0, EVALS!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="112" cm="1">
+        <f t="array" ref="I11">IF(OR(TRIM(EVALS!N8)="", ISBLANK(EVALS!I=N8)), 0, EVALS!N8) + IF(OR(TRIM(EVALS!O8)="", ISBLANK(EVALS!O8)), 0, EVALS!O8)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="91">
+        <f>IF(OR(TRIM(EVALS!P8)="", ISBLANK(EVALS!P8)), 0, EVALS!P8) + IF(OR(TRIM(EVALS!Q8)="", ISBLANK(EVALS!Q8)), 0, EVALS!Q8)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="93"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="90">
+        <f>IF(OR(TRIM(EVALS!H9)="", ISBLANK(EVALS!H9)), 0, EVALS!H9) + IF(OR(TRIM(EVALS!I9)="", ISBLANK(EVALS!I9)), 0, EVALS!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="112" cm="1">
+        <f t="array" ref="G12">IF(OR(TRIM(EVALS!J9)="", ISBLANK(EVALS!I=J9)), 0, EVALS!J9) + IF(OR(TRIM(EVALS!K9)="", ISBLANK(EVALS!K9)), 0, EVALS!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="112">
+        <f>IF(OR(TRIM(EVALS!L9)="", ISBLANK(EVALS!L9)), 0, EVALS!L9) + IF(OR(TRIM(EVALS!M9)="", ISBLANK(EVALS!M9)), 0, EVALS!M9)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="112" cm="1">
+        <f t="array" ref="I12">IF(OR(TRIM(EVALS!N9)="", ISBLANK(EVALS!I=N9)), 0, EVALS!N9) + IF(OR(TRIM(EVALS!O9)="", ISBLANK(EVALS!O9)), 0, EVALS!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="91">
+        <f>IF(OR(TRIM(EVALS!P9)="", ISBLANK(EVALS!P9)), 0, EVALS!P9) + IF(OR(TRIM(EVALS!Q9)="", ISBLANK(EVALS!Q9)), 0, EVALS!Q9)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="93"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="94">
+        <f>IF(OR(TRIM(EVALS!H10)="", ISBLANK(EVALS!H10)), 0, EVALS!H10) + IF(OR(TRIM(EVALS!I10)="", ISBLANK(EVALS!I10)), 0, EVALS!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="95" cm="1">
+        <f t="array" ref="G13">IF(OR(TRIM(EVALS!J10)="", ISBLANK(EVALS!I=J10)), 0, EVALS!J10) + IF(OR(TRIM(EVALS!K10)="", ISBLANK(EVALS!K10)), 0, EVALS!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="95" cm="1">
+        <f t="array" ref="H13">IF(OR(TRIM(EVALS!L10)="", ISBLANK(EVALS!I=L10)), 0, EVALS!L10) + IF(OR(TRIM(EVALS!M10)="", ISBLANK(EVALS!M10)), 0, EVALS!M10)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="95" cm="1">
+        <f t="array" ref="I13">IF(OR(TRIM(EVALS!N10)="", ISBLANK(EVALS!I=N10)), 0, EVALS!N10) + IF(OR(TRIM(EVALS!O10)="", ISBLANK(EVALS!O10)), 0, EVALS!O10)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="96">
+        <f>IF(OR(TRIM(EVALS!P10)="", ISBLANK(EVALS!P10)), 0, EVALS!P10) + IF(OR(TRIM(EVALS!Q10)="", ISBLANK(EVALS!Q10)), 0, EVALS!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="74"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A9:B13"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>